--- a/lab1/tmp/SortersComparison.xlsx
+++ b/lab1/tmp/SortersComparison.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Descending order" r:id="rId4" sheetId="2"/>
     <sheet name="Random order" r:id="rId5" sheetId="3"/>
     <sheet name="Ascending order with a random n" r:id="rId6" sheetId="4"/>
+    <sheet name="test" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
@@ -20,19 +21,10 @@
     <t>Milliseconds</t>
   </si>
   <si>
-    <t>Merging bubble sorter backwards</t>
-  </si>
-  <si>
-    <t>Merging quick sorter</t>
-  </si>
-  <si>
     <t>util.Arrays sorter</t>
   </si>
   <si>
-    <t>Quick sorter</t>
-  </si>
-  <si>
-    <t>Bubble sorter forwards</t>
+    <t>Merging bubble sorter forwards</t>
   </si>
   <si>
     <t>Bubble sorter backwards</t>
@@ -41,7 +33,16 @@
     <t>Merging util.Arrays sorter</t>
   </si>
   <si>
-    <t>Merging bubble sorter forwards</t>
+    <t>Merging quick sorter</t>
+  </si>
+  <si>
+    <t>Quick sorter</t>
+  </si>
+  <si>
+    <t>Merging bubble sorter backwards</t>
+  </si>
+  <si>
+    <t>Bubble sorter forwards</t>
   </si>
 </sst>
 </file>
@@ -84,8 +85,5064 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="false"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>util.Arrays sorter</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ascending order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ascending order'!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.636179</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.110433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.201315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>224.359245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.146564</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.135684</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.124163</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.672079</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.647118</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.38436</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.266888</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.195205</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.210566</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.216967</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.460872</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.275848</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.906616</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.219526</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.231687</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Merging bubble sorter forwards</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ascending order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ascending order'!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.497645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.288068</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.746729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.141169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.942586</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.380171</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.488334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.288648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.377612</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.493454</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.536336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.416013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.420493</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.515855</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.535055</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.42317</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.645139</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.726771</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.579218</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.613778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Bubble sorter backwards</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ascending order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ascending order'!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.591378</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.747542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.062839</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.423402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.847562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.168675</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.158725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.164484</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.156165</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.186245</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.188805</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.197766</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.396172</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.237447</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.344099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.730902</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.209286</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.218887</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.218886</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Merging util.Arrays sorter</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ascending order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ascending order'!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.349799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.980815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.409208</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.907547</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34689</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.378891</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.419212</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.302729</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.643219</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.346891</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.394892</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.528656</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.419853</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.463374</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.508175</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48.052615</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.600338</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.240357</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.574737</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.569617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Merging quick sorter</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ascending order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ascending order'!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>17.303549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.702451</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.624368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.584687</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.474953</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.495084</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.16589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.02921</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.494503</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.307268</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.489673</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.138012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.754001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.350848</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.07948</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.660036</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.505093</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.158843</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.844652</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.907554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Quick sorter</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ascending order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ascending order'!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.562286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.460813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.696341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.864665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.139547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.324199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.475244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.777332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.593191</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.556876</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.595276</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.943914</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.679759</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.042649</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.650027</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.90534</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.811021</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.991625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.320889</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.789441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Merging bubble sorter backwards</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ascending order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ascending order'!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.214756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.834294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.869032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.771863</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.401931</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.298249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.288009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.316809</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.419852</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.386571</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.410252</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.439693</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.581137</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.340957</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.300651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.552976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.624659</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.604818</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.578577</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Bubble sorter forwards</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ascending order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ascending order'!$I$2:$I$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.647699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.992669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.487403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.302729</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.645838</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.154245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.141444</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.153605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.156165</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.238087</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.180485</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.183045</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.188806</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.202246</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.270088</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.478389</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.480654</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.200326</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.232967</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.222727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:smooth val="false"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="false"/>
+    </c:legend>
+    <c:plotVisOnly val="true"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="false"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>util.Arrays sorter</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Descending order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descending order'!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.462443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.889975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.005179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.112003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.120964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.911387</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.518415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.170245</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.199045</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.230756</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.208006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.274568</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.389131</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.225926</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.238087</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.275848</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.272648</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.286088</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.293769</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.31809</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Merging bubble sorter forwards</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Descending order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descending order'!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>40.009498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136.058405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>438.589552</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>285.988579</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>454.708427</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>646.268626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>862.511793</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1152.708496</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1756.560513</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3493.909581</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3361.171593</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5957.1821</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3637.017794</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4010.574391</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4434.087659</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4663.340488</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5443.175287</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6300.205958</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8164.136032</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6952.382599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Bubble sorter backwards</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Descending order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descending order'!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>73.735931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133.533532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>312.477039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>547.90797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>850.20935</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1239.916184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1675.854137</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2527.719856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3506.471231</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5210.349232</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7784.831426</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18517.99093</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6545.094448</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8401.568942</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11126.221956</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11799.57874</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10793.733448</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17472.763998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13980.99912</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13823.728571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Merging util.Arrays sorter</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Descending order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descending order'!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.629138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.432013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.967708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.375051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.266888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.312329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.360331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.854484</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.871066</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.539535</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.528656</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.587538</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.584977</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65346</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.716181</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.909467</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.759062</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.869145</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.890907</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.904346</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Merging quick sorter</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Descending order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descending order'!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.35585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.257637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.806423</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.086752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.296038</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.484204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.962938</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.684007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.525169</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.04777</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.801421</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.12562</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.319138</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.124981</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.882994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.192763</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.602725</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.834412</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.131031</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.153141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Quick sorter</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Descending order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descending order'!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.304009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.524815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.916507</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.151394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.305638</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.770293</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.848374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.199744</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.839124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.180898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.771921</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.677549</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.275966</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.546344</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.333567</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.09356</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.297322</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.532614</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.533603</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Merging bubble sorter backwards</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Descending order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descending order'!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>17.126904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.480037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158.061614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>274.875932</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>408.180337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>605.047572</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>825.281257</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1206.767048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2698.498643</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5409.292049</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3442.725994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12307.862503</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5873.164266</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4554.418882</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4242.981233</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5503.381859</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5279.775916</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7619.320633</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6019.070641</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6857.375641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Bubble sorter forwards</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Descending order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descending order'!$I$2:$I$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>69.627649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320.077263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>324.904925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>539.844373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>913.0432</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1323.880895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1760.925442</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3143.103093</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6305.675559</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12730.821515</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7135.88304</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23536.861885</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24097.446069</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8488.838072</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8867.642184</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11153.566121</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11433.315797</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13486.240235</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13107.227477</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14525.559152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:smooth val="false"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="false"/>
+    </c:legend>
+    <c:plotVisOnly val="true"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="false"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>util.Arrays sorter</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Random order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random order'!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.518415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.897306</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.383081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.058941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.334789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.017689</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.341888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.868624</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.10031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.484961</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.977136</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.953805</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.13749</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.308085</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.283473</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.070347</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.587482</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.439988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.101766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Merging bubble sorter forwards</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Random order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random order'!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>20.752611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.61631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>204.941713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>371.849668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>580.568772</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>843.176823</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1160.441843</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1513.992092</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1935.663386</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2391.873297</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2904.795917</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3468.349788</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4071.66675</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4775.847481</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5442.400224</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6364.568813</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6996.176527</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7852.466697</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9105.868077</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9723.614263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Bubble sorter backwards</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Random order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random order'!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>60.493301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204.090488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>470.142481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>841.898706</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1316.354914</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1905.151768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2583.315092</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3447.6919</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4300.27508</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5302.158015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6425.684853</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7639.002492</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9033.549148</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10424.955871</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11963.802455</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13928.268608</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15475.040545</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17351.741556</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20113.235973</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21430.915726</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Merging util.Arrays sorter</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Random order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random order'!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.501775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.959388</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.457323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.989179</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.505034</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.186654</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.532264</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.130041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.672138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.472801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.881134</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.245362</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.929484</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.708387</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.549371</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.84634</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.50044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.87101</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.51871</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.006754</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Merging quick sorter</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Random order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random order'!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.788621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.345959</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.025019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.323618</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.07948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.743819</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.692967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.520512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.031887</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.468906</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.598653</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.52348</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.736956</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.423056</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.711065</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.368364</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.656722</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.137376</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.513302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Quick sorter</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Random order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random order'!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.320358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.283877</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.37639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.436261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.204575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.959156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.622217</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.42096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.155701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.164371</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.598944</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.83546</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.123469</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.768608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.578232</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.203239</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.354923</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.086465</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.671443</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.318502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Merging bubble sorter backwards</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Random order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random order'!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>24.498641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.294035</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224.443728</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>411.679319</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>650.351306</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>942.25814</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1285.134794</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1690.839539</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2131.182102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2642.760043</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3186.633975</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3801.176867</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4472.429268</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5163.050561</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6077.555563</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6828.970325</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7637.366604</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8869.889929</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9575.364139</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10621.731584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Bubble sorter forwards</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Random order'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random order'!$I$2:$I$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>42.965745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>183.875493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>421.481848</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>768.022611</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1209.871779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1731.617699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2359.787232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3101.147938</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3942.446306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4865.225472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5888.947131</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7044.608673</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8296.113037</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9601.531949</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11275.025697</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12521.290867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14147.74899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16651.861751</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17803.630699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19637.986783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:smooth val="false"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="false"/>
+    </c:legend>
+    <c:plotVisOnly val="true"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="false"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>util.Arrays sorter</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ascending order with a random n'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ascending order with a random n'!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.087683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.140804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.179845</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.221446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.357131</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.417932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.408332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.528016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.566417</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.603537</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67138</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.790423</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.764822</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.782743</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.918427</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.963868</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.912667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.086752</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.265958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Merging bubble sorter forwards</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ascending order with a random n'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ascending order with a random n'!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.231805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.798571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.421497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.664535</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.396709</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124.084933</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.822062</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>247.373683</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>310.4917</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>349.285163</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>466.800303</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>557.192724</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>382.225653</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>751.533165</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>867.318334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>818.827946</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1078.748559</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1243.242361</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1385.957603</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1458.809668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Bubble sorter backwards</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ascending order with a random n'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ascending order with a random n'!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.067202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.048001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.117764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.142724</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.115844</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.145284</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.160005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.212486</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.217606</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.219526</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.252168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.268808</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.259208</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.295689</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33729</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.327689</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.419853</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.396171</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.416652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Merging util.Arrays sorter</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ascending order with a random n'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ascending order with a random n'!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.075522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.132484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.179205</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.233607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.305289</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.391692</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.420492</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.488335</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.632339</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.607378</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6733</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6893</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.862745</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.804504</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.424042</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.943388</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.67557</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.02851</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.138593</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.240356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Merging quick sorter</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ascending order with a random n'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ascending order with a random n'!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.248328</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.437133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.748822</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01443</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.219875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.434282</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.654448</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.006459</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.348229</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.528715</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.983768</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.137373</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.917205</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.72811</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.737419</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.034039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.790541</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.718219</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.063189</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.203354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Quick sorter</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ascending order with a random n'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ascending order with a random n'!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.224646</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.398091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.00035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.088032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.580206</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.474603</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.862164</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.36615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.346949</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.789203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.146332</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.746961</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.586665</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.883634</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.548265</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.359168</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.570084</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.549894</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.697098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Merging bubble sorter backwards</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ascending order with a random n'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ascending order with a random n'!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.056962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.093443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.153604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.196486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.254088</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34945</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33281</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.744982</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.423052</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.451214</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.908827</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.533776</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.839704</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.664339</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.68354</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.717461</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.782103</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.810263</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.876825</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.219586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Bubble sorter forwards</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ascending order with a random n'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ascending order with a random n'!$I$2:$I$21</c:f>
+              <c:numCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>11.423696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.136037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119.401275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>246.880868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106.194487</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>297.667643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>289.970776</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>981.418973</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1115.421638</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>884.739007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1577.42052</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1841.510214</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>850.065346</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2301.750963</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3221.976456</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1986.73689</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2902.346565</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4961.525907</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4412.853114</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3836.60831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:smooth val="false"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="false"/>
+    </c:legend>
+    <c:plotVisOnly val="true"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name="Diagramm0"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name="Diagramm0"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name="Diagramm0"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name="Diagramm0"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
@@ -93,14 +5150,14 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="12.15234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.16015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.63671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.09375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.9921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="21.6875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="23.23046875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="24.06640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="29.62109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.09375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="29.62109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="23.23046875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.06640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="19.63671875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.9921875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="31.16015625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="21.6875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -137,28 +5194,28 @@
         <v>5000.0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.697679</v>
+        <v>0.636179</v>
       </c>
       <c r="C2" t="n">
-        <v>5.75697</v>
+        <v>1.497645</v>
       </c>
       <c r="D2" t="n">
-        <v>1.136674</v>
+        <v>0.591378</v>
       </c>
       <c r="E2" t="n">
-        <v>1.548846</v>
+        <v>1.349799</v>
       </c>
       <c r="F2" t="n">
-        <v>1.283237</v>
+        <v>17.303549</v>
       </c>
       <c r="G2" t="n">
-        <v>0.99779</v>
+        <v>1.562286</v>
       </c>
       <c r="H2" t="n">
-        <v>1.255717</v>
+        <v>1.214756</v>
       </c>
       <c r="I2" t="n">
-        <v>1.36004</v>
+        <v>0.647699</v>
       </c>
     </row>
     <row r="3">
@@ -166,28 +5223,28 @@
         <v>10000.0</v>
       </c>
       <c r="B3" t="n">
-        <v>2.695119</v>
+        <v>1.110433</v>
       </c>
       <c r="C3" t="n">
-        <v>2.462153</v>
+        <v>2.288068</v>
       </c>
       <c r="D3" t="n">
-        <v>0.719381</v>
+        <v>0.747542</v>
       </c>
       <c r="E3" t="n">
-        <v>1.292838</v>
+        <v>43.980815</v>
       </c>
       <c r="F3" t="n">
-        <v>0.923547</v>
+        <v>1.702451</v>
       </c>
       <c r="G3" t="n">
-        <v>0.769943</v>
+        <v>0.460813</v>
       </c>
       <c r="H3" t="n">
-        <v>1.790133</v>
+        <v>1.834294</v>
       </c>
       <c r="I3" t="n">
-        <v>2.145983</v>
+        <v>0.992669</v>
       </c>
     </row>
     <row r="4">
@@ -195,28 +5252,28 @@
         <v>15000.0</v>
       </c>
       <c r="B4" t="n">
-        <v>3.72363</v>
+        <v>1.201315</v>
       </c>
       <c r="C4" t="n">
-        <v>1.02851</v>
+        <v>5.746729</v>
       </c>
       <c r="D4" t="n">
-        <v>1.00547</v>
+        <v>4.062839</v>
       </c>
       <c r="E4" t="n">
-        <v>0.641939</v>
+        <v>8.409208</v>
       </c>
       <c r="F4" t="n">
-        <v>1.519405</v>
+        <v>1.624368</v>
       </c>
       <c r="G4" t="n">
-        <v>1.072671</v>
+        <v>0.696341</v>
       </c>
       <c r="H4" t="n">
-        <v>14.063774</v>
+        <v>7.869032</v>
       </c>
       <c r="I4" t="n">
-        <v>1.671089</v>
+        <v>1.487403</v>
       </c>
     </row>
     <row r="5">
@@ -224,28 +5281,28 @@
         <v>20000.0</v>
       </c>
       <c r="B5" t="n">
-        <v>2.508234</v>
+        <v>0.33985</v>
       </c>
       <c r="C5" t="n">
-        <v>1.410602</v>
+        <v>45.141169</v>
       </c>
       <c r="D5" t="n">
-        <v>0.475534</v>
+        <v>1.423402</v>
       </c>
       <c r="E5" t="n">
-        <v>1.936057</v>
+        <v>0.907547</v>
       </c>
       <c r="F5" t="n">
-        <v>2.127422</v>
+        <v>1.584687</v>
       </c>
       <c r="G5" t="n">
-        <v>0.33217</v>
+        <v>0.864665</v>
       </c>
       <c r="H5" t="n">
-        <v>0.872986</v>
+        <v>0.771863</v>
       </c>
       <c r="I5" t="n">
-        <v>0.878106</v>
+        <v>0.302729</v>
       </c>
     </row>
     <row r="6">
@@ -253,28 +5310,28 @@
         <v>25000.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1.112993</v>
+        <v>224.359245</v>
       </c>
       <c r="C6" t="n">
-        <v>3.695469</v>
+        <v>38.942586</v>
       </c>
       <c r="D6" t="n">
-        <v>0.471694</v>
+        <v>6.847562</v>
       </c>
       <c r="E6" t="n">
-        <v>1.141794</v>
+        <v>0.34689</v>
       </c>
       <c r="F6" t="n">
-        <v>0.381451</v>
+        <v>2.474953</v>
       </c>
       <c r="G6" t="n">
-        <v>0.382091</v>
+        <v>66.139547</v>
       </c>
       <c r="H6" t="n">
-        <v>0.976669</v>
+        <v>0.34177</v>
       </c>
       <c r="I6" t="n">
-        <v>3.477223</v>
+        <v>2.645838</v>
       </c>
     </row>
     <row r="7">
@@ -282,28 +5339,28 @@
         <v>30000.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1.071391</v>
+        <v>0.146564</v>
       </c>
       <c r="C7" t="n">
-        <v>1.925177</v>
+        <v>0.380171</v>
       </c>
       <c r="D7" t="n">
-        <v>1.535405</v>
+        <v>1.168675</v>
       </c>
       <c r="E7" t="n">
-        <v>1.309479</v>
+        <v>0.378891</v>
       </c>
       <c r="F7" t="n">
-        <v>0.432012</v>
+        <v>1.495084</v>
       </c>
       <c r="G7" t="n">
-        <v>0.423053</v>
+        <v>1.324199</v>
       </c>
       <c r="H7" t="n">
-        <v>0.937628</v>
+        <v>0.401931</v>
       </c>
       <c r="I7" t="n">
-        <v>2.577996</v>
+        <v>0.154245</v>
       </c>
     </row>
     <row r="8">
@@ -311,28 +5368,28 @@
         <v>35000.0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.988829</v>
+        <v>0.135684</v>
       </c>
       <c r="C8" t="n">
-        <v>2.04486</v>
+        <v>0.488334</v>
       </c>
       <c r="D8" t="n">
-        <v>0.522255</v>
+        <v>0.158725</v>
       </c>
       <c r="E8" t="n">
-        <v>1.68453</v>
+        <v>0.419212</v>
       </c>
       <c r="F8" t="n">
-        <v>0.481934</v>
+        <v>26.16589</v>
       </c>
       <c r="G8" t="n">
-        <v>0.464653</v>
+        <v>1.475244</v>
       </c>
       <c r="H8" t="n">
-        <v>1.045151</v>
+        <v>0.298249</v>
       </c>
       <c r="I8" t="n">
-        <v>1.408041</v>
+        <v>0.141444</v>
       </c>
     </row>
     <row r="9">
@@ -340,28 +5397,28 @@
         <v>40000.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1.100832</v>
+        <v>0.124163</v>
       </c>
       <c r="C9" t="n">
-        <v>2.191425</v>
+        <v>0.288648</v>
       </c>
       <c r="D9" t="n">
-        <v>0.567057</v>
+        <v>0.164484</v>
       </c>
       <c r="E9" t="n">
-        <v>1.950137</v>
+        <v>0.302729</v>
       </c>
       <c r="F9" t="n">
-        <v>1.053471</v>
+        <v>3.02921</v>
       </c>
       <c r="G9" t="n">
-        <v>0.521615</v>
+        <v>1.777332</v>
       </c>
       <c r="H9" t="n">
-        <v>1.138593</v>
+        <v>0.288009</v>
       </c>
       <c r="I9" t="n">
-        <v>1.163554</v>
+        <v>0.153605</v>
       </c>
     </row>
     <row r="10">
@@ -369,28 +5426,28 @@
         <v>45000.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1.139873</v>
+        <v>2.672079</v>
       </c>
       <c r="C10" t="n">
-        <v>3.204575</v>
+        <v>0.377612</v>
       </c>
       <c r="D10" t="n">
-        <v>0.632339</v>
+        <v>0.156165</v>
       </c>
       <c r="E10" t="n">
-        <v>2.04102</v>
+        <v>0.643219</v>
       </c>
       <c r="F10" t="n">
-        <v>0.716181</v>
+        <v>3.494503</v>
       </c>
       <c r="G10" t="n">
-        <v>0.572817</v>
+        <v>29.593191</v>
       </c>
       <c r="H10" t="n">
-        <v>1.207715</v>
+        <v>0.316809</v>
       </c>
       <c r="I10" t="n">
-        <v>1.209636</v>
+        <v>0.156165</v>
       </c>
     </row>
     <row r="11">
@@ -398,28 +5455,28 @@
         <v>50000.0</v>
       </c>
       <c r="B11" t="n">
-        <v>2.433992</v>
+        <v>2.647118</v>
       </c>
       <c r="C11" t="n">
-        <v>3.205214</v>
+        <v>0.493454</v>
       </c>
       <c r="D11" t="n">
-        <v>0.782103</v>
+        <v>0.69314</v>
       </c>
       <c r="E11" t="n">
-        <v>2.313668</v>
+        <v>0.346891</v>
       </c>
       <c r="F11" t="n">
-        <v>0.648339</v>
+        <v>2.307268</v>
       </c>
       <c r="G11" t="n">
-        <v>0.643859</v>
+        <v>2.556876</v>
       </c>
       <c r="H11" t="n">
-        <v>1.34276</v>
+        <v>0.419852</v>
       </c>
       <c r="I11" t="n">
-        <v>2.38727</v>
+        <v>0.238087</v>
       </c>
     </row>
     <row r="12">
@@ -427,28 +5484,28 @@
         <v>55000.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1.395241</v>
+        <v>1.38436</v>
       </c>
       <c r="C12" t="n">
-        <v>2.834643</v>
+        <v>0.536336</v>
       </c>
       <c r="D12" t="n">
-        <v>0.871705</v>
+        <v>0.186245</v>
       </c>
       <c r="E12" t="n">
-        <v>10.589752</v>
+        <v>0.394892</v>
       </c>
       <c r="F12" t="n">
-        <v>0.474894</v>
+        <v>2.489673</v>
       </c>
       <c r="G12" t="n">
-        <v>0.617618</v>
+        <v>2.595276</v>
       </c>
       <c r="H12" t="n">
-        <v>1.797813</v>
+        <v>0.386571</v>
       </c>
       <c r="I12" t="n">
-        <v>1.092512</v>
+        <v>0.180485</v>
       </c>
     </row>
     <row r="13">
@@ -456,28 +5513,28 @@
         <v>60000.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1.255077</v>
+        <v>0.266888</v>
       </c>
       <c r="C13" t="n">
-        <v>3.04777</v>
+        <v>0.416013</v>
       </c>
       <c r="D13" t="n">
-        <v>0.826904</v>
+        <v>0.188805</v>
       </c>
       <c r="E13" t="n">
-        <v>2.667599</v>
+        <v>0.528656</v>
       </c>
       <c r="F13" t="n">
-        <v>0.472334</v>
+        <v>3.138012</v>
       </c>
       <c r="G13" t="n">
-        <v>0.546576</v>
+        <v>7.943914</v>
       </c>
       <c r="H13" t="n">
-        <v>1.240997</v>
+        <v>0.410252</v>
       </c>
       <c r="I13" t="n">
-        <v>1.065631</v>
+        <v>0.183045</v>
       </c>
     </row>
     <row r="14">
@@ -485,28 +5542,28 @@
         <v>65000.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1.164194</v>
+        <v>0.195205</v>
       </c>
       <c r="C14" t="n">
-        <v>3.298657</v>
+        <v>0.420493</v>
       </c>
       <c r="D14" t="n">
-        <v>0.892186</v>
+        <v>0.197766</v>
       </c>
       <c r="E14" t="n">
-        <v>2.766162</v>
+        <v>0.419853</v>
       </c>
       <c r="F14" t="n">
-        <v>0.501135</v>
+        <v>2.754001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.574097</v>
+        <v>2.679759</v>
       </c>
       <c r="H14" t="n">
-        <v>1.279397</v>
+        <v>0.439693</v>
       </c>
       <c r="I14" t="n">
-        <v>1.107873</v>
+        <v>0.188806</v>
       </c>
     </row>
     <row r="15">
@@ -514,28 +5571,28 @@
         <v>70000.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1.213476</v>
+        <v>0.210566</v>
       </c>
       <c r="C15" t="n">
-        <v>3.432421</v>
+        <v>0.515855</v>
       </c>
       <c r="D15" t="n">
-        <v>0.781463</v>
+        <v>0.396172</v>
       </c>
       <c r="E15" t="n">
-        <v>2.980568</v>
+        <v>0.463374</v>
       </c>
       <c r="F15" t="n">
-        <v>0.506255</v>
+        <v>4.350848</v>
       </c>
       <c r="G15" t="n">
-        <v>0.646419</v>
+        <v>3.042649</v>
       </c>
       <c r="H15" t="n">
-        <v>1.261477</v>
+        <v>0.581137</v>
       </c>
       <c r="I15" t="n">
-        <v>1.138593</v>
+        <v>0.202246</v>
       </c>
     </row>
     <row r="16">
@@ -543,28 +5600,28 @@
         <v>75000.0</v>
       </c>
       <c r="B16" t="n">
-        <v>2.110782</v>
+        <v>0.216967</v>
       </c>
       <c r="C16" t="n">
-        <v>3.596906</v>
+        <v>0.535055</v>
       </c>
       <c r="D16" t="n">
-        <v>0.67458</v>
+        <v>0.237447</v>
       </c>
       <c r="E16" t="n">
-        <v>3.336418</v>
+        <v>0.508175</v>
       </c>
       <c r="F16" t="n">
-        <v>0.514575</v>
+        <v>4.07948</v>
       </c>
       <c r="G16" t="n">
-        <v>0.625938</v>
+        <v>3.650027</v>
       </c>
       <c r="H16" t="n">
-        <v>2.840404</v>
+        <v>5.340957</v>
       </c>
       <c r="I16" t="n">
-        <v>1.139233</v>
+        <v>0.270088</v>
       </c>
     </row>
     <row r="17">
@@ -572,28 +5629,28 @@
         <v>80000.0</v>
       </c>
       <c r="B17" t="n">
-        <v>3.285217</v>
+        <v>2.460872</v>
       </c>
       <c r="C17" t="n">
-        <v>10.437427</v>
+        <v>4.42317</v>
       </c>
       <c r="D17" t="n">
-        <v>3.970037</v>
+        <v>3.344099</v>
       </c>
       <c r="E17" t="n">
-        <v>7.554783</v>
+        <v>48.052615</v>
       </c>
       <c r="F17" t="n">
-        <v>4.679818</v>
+        <v>6.660036</v>
       </c>
       <c r="G17" t="n">
-        <v>3.541224</v>
+        <v>12.90534</v>
       </c>
       <c r="H17" t="n">
-        <v>2.755281</v>
+        <v>49.300651</v>
       </c>
       <c r="I17" t="n">
-        <v>11.642583</v>
+        <v>10.478389</v>
       </c>
     </row>
     <row r="18">
@@ -601,28 +5658,28 @@
         <v>85000.0</v>
       </c>
       <c r="B18" t="n">
-        <v>0.615058</v>
+        <v>0.275848</v>
       </c>
       <c r="C18" t="n">
-        <v>4.146042</v>
+        <v>0.645139</v>
       </c>
       <c r="D18" t="n">
-        <v>0.277128</v>
+        <v>0.730902</v>
       </c>
       <c r="E18" t="n">
-        <v>4.019958</v>
+        <v>0.600338</v>
       </c>
       <c r="F18" t="n">
-        <v>0.252168</v>
+        <v>4.505093</v>
       </c>
       <c r="G18" t="n">
-        <v>0.259848</v>
+        <v>4.811021</v>
       </c>
       <c r="H18" t="n">
-        <v>0.602898</v>
+        <v>0.552976</v>
       </c>
       <c r="I18" t="n">
-        <v>0.644499</v>
+        <v>0.480654</v>
       </c>
     </row>
     <row r="19">
@@ -630,28 +5687,28 @@
         <v>90000.0</v>
       </c>
       <c r="B19" t="n">
-        <v>2.698959</v>
+        <v>1.906616</v>
       </c>
       <c r="C19" t="n">
-        <v>4.576134</v>
+        <v>1.726771</v>
       </c>
       <c r="D19" t="n">
+        <v>0.209286</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.240357</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4.158843</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8.991625</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.624659</v>
+      </c>
+      <c r="I19" t="n">
         <v>0.200326</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4.066039</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.227847</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4.137722</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.602897</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.602898</v>
       </c>
     </row>
     <row r="20">
@@ -659,28 +5716,28 @@
         <v>95000.0</v>
       </c>
       <c r="B20" t="n">
-        <v>0.564496</v>
+        <v>0.219526</v>
       </c>
       <c r="C20" t="n">
-        <v>4.679178</v>
+        <v>0.579218</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207366</v>
+        <v>0.218887</v>
       </c>
       <c r="E20" t="n">
-        <v>4.316927</v>
+        <v>0.574737</v>
       </c>
       <c r="F20" t="n">
-        <v>0.213127</v>
+        <v>5.844652</v>
       </c>
       <c r="G20" t="n">
-        <v>0.203526</v>
+        <v>19.320889</v>
       </c>
       <c r="H20" t="n">
-        <v>0.553616</v>
+        <v>0.604818</v>
       </c>
       <c r="I20" t="n">
-        <v>0.608017</v>
+        <v>0.232967</v>
       </c>
     </row>
     <row r="21">
@@ -688,37 +5745,38 @@
         <v>100000.0</v>
       </c>
       <c r="B21" t="n">
-        <v>0.593937</v>
+        <v>0.231687</v>
       </c>
       <c r="C21" t="n">
-        <v>6.254264</v>
+        <v>0.613778</v>
       </c>
       <c r="D21" t="n">
-        <v>0.212486</v>
+        <v>0.218886</v>
       </c>
       <c r="E21" t="n">
-        <v>4.563335</v>
+        <v>0.569617</v>
       </c>
       <c r="F21" t="n">
-        <v>0.229766</v>
+        <v>22.907554</v>
       </c>
       <c r="G21" t="n">
-        <v>0.813464</v>
+        <v>21.789441</v>
       </c>
       <c r="H21" t="n">
-        <v>0.816024</v>
+        <v>0.578577</v>
       </c>
       <c r="I21" t="n">
-        <v>0.615698</v>
+        <v>0.222727</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -726,14 +5784,14 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="12.15234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.16015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.63671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.09375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.9921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="21.6875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="23.23046875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="24.06640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="29.62109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.09375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="29.62109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="23.23046875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.06640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="19.63671875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.9921875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="31.16015625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="21.6875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -770,28 +5828,28 @@
         <v>5000.0</v>
       </c>
       <c r="B2" t="n">
-        <v>31.718694</v>
+        <v>1.462443</v>
       </c>
       <c r="C2" t="n">
-        <v>0.35073</v>
+        <v>40.009498</v>
       </c>
       <c r="D2" t="n">
-        <v>1.604527</v>
+        <v>73.735931</v>
       </c>
       <c r="E2" t="n">
-        <v>0.265607</v>
+        <v>0.629138</v>
       </c>
       <c r="F2" t="n">
-        <v>84.611771</v>
+        <v>0.35585</v>
       </c>
       <c r="G2" t="n">
-        <v>33.100495</v>
+        <v>0.304009</v>
       </c>
       <c r="H2" t="n">
-        <v>0.835864</v>
+        <v>17.126904</v>
       </c>
       <c r="I2" t="n">
-        <v>33.398743</v>
+        <v>69.627649</v>
       </c>
     </row>
     <row r="3">
@@ -799,28 +5857,28 @@
         <v>10000.0</v>
       </c>
       <c r="B3" t="n">
-        <v>66.352033</v>
+        <v>1.889975</v>
       </c>
       <c r="C3" t="n">
-        <v>0.614418</v>
+        <v>136.058405</v>
       </c>
       <c r="D3" t="n">
-        <v>0.427532</v>
+        <v>133.533532</v>
       </c>
       <c r="E3" t="n">
-        <v>0.470414</v>
+        <v>0.432013</v>
       </c>
       <c r="F3" t="n">
-        <v>133.893222</v>
+        <v>1.257637</v>
       </c>
       <c r="G3" t="n">
-        <v>134.85389</v>
+        <v>0.524815</v>
       </c>
       <c r="H3" t="n">
-        <v>0.451213</v>
+        <v>66.480037</v>
       </c>
       <c r="I3" t="n">
-        <v>69.141876</v>
+        <v>320.077263</v>
       </c>
     </row>
     <row r="4">
@@ -828,28 +5886,28 @@
         <v>15000.0</v>
       </c>
       <c r="B4" t="n">
-        <v>150.041538</v>
+        <v>2.005179</v>
       </c>
       <c r="C4" t="n">
-        <v>0.899227</v>
+        <v>438.589552</v>
       </c>
       <c r="D4" t="n">
-        <v>1.610927</v>
+        <v>312.477039</v>
       </c>
       <c r="E4" t="n">
-        <v>0.858905</v>
+        <v>0.967708</v>
       </c>
       <c r="F4" t="n">
-        <v>331.652644</v>
+        <v>0.806423</v>
       </c>
       <c r="G4" t="n">
-        <v>300.25012</v>
+        <v>0.67586</v>
       </c>
       <c r="H4" t="n">
-        <v>8.990984</v>
+        <v>158.061614</v>
       </c>
       <c r="I4" t="n">
-        <v>177.251939</v>
+        <v>324.904925</v>
       </c>
     </row>
     <row r="5">
@@ -857,28 +5915,28 @@
         <v>20000.0</v>
       </c>
       <c r="B5" t="n">
-        <v>266.843695</v>
+        <v>0.112003</v>
       </c>
       <c r="C5" t="n">
-        <v>1.02723</v>
+        <v>285.988579</v>
       </c>
       <c r="D5" t="n">
-        <v>0.094082</v>
+        <v>547.90797</v>
       </c>
       <c r="E5" t="n">
-        <v>1.096992</v>
+        <v>0.375051</v>
       </c>
       <c r="F5" t="n">
-        <v>569.819016</v>
+        <v>1.086752</v>
       </c>
       <c r="G5" t="n">
-        <v>545.717186</v>
+        <v>0.916507</v>
       </c>
       <c r="H5" t="n">
-        <v>10.137898</v>
+        <v>274.875932</v>
       </c>
       <c r="I5" t="n">
-        <v>268.379741</v>
+        <v>539.844373</v>
       </c>
     </row>
     <row r="6">
@@ -886,28 +5944,28 @@
         <v>25000.0</v>
       </c>
       <c r="B6" t="n">
-        <v>416.954355</v>
+        <v>0.120964</v>
       </c>
       <c r="C6" t="n">
-        <v>2.654799</v>
+        <v>454.708427</v>
       </c>
       <c r="D6" t="n">
-        <v>0.181125</v>
+        <v>850.20935</v>
       </c>
       <c r="E6" t="n">
-        <v>1.175075</v>
+        <v>0.266888</v>
       </c>
       <c r="F6" t="n">
-        <v>891.346561</v>
+        <v>1.296038</v>
       </c>
       <c r="G6" t="n">
-        <v>839.01286</v>
+        <v>1.151394</v>
       </c>
       <c r="H6" t="n">
-        <v>0.319369</v>
+        <v>408.180337</v>
       </c>
       <c r="I6" t="n">
-        <v>440.058395</v>
+        <v>913.0432</v>
       </c>
     </row>
     <row r="7">
@@ -915,28 +5973,28 @@
         <v>30000.0</v>
       </c>
       <c r="B7" t="n">
-        <v>602.6123</v>
+        <v>0.911387</v>
       </c>
       <c r="C7" t="n">
-        <v>1.528365</v>
+        <v>646.268626</v>
       </c>
       <c r="D7" t="n">
-        <v>0.127364</v>
+        <v>1239.916184</v>
       </c>
       <c r="E7" t="n">
-        <v>1.288998</v>
+        <v>0.312329</v>
       </c>
       <c r="F7" t="n">
-        <v>1282.370553</v>
+        <v>1.484204</v>
       </c>
       <c r="G7" t="n">
-        <v>1218.900525</v>
+        <v>1.305638</v>
       </c>
       <c r="H7" t="n">
-        <v>0.32129</v>
+        <v>605.047572</v>
       </c>
       <c r="I7" t="n">
-        <v>638.564079</v>
+        <v>1323.880895</v>
       </c>
     </row>
     <row r="8">
@@ -944,28 +6002,28 @@
         <v>35000.0</v>
       </c>
       <c r="B8" t="n">
-        <v>819.31308</v>
+        <v>0.518415</v>
       </c>
       <c r="C8" t="n">
-        <v>1.771572</v>
+        <v>862.511793</v>
       </c>
       <c r="D8" t="n">
-        <v>2.191424</v>
+        <v>1675.854137</v>
       </c>
       <c r="E8" t="n">
-        <v>1.643569</v>
+        <v>0.360331</v>
       </c>
       <c r="F8" t="n">
-        <v>1759.15643</v>
+        <v>1.962938</v>
       </c>
       <c r="G8" t="n">
-        <v>1671.586491</v>
+        <v>1.770293</v>
       </c>
       <c r="H8" t="n">
-        <v>0.34049</v>
+        <v>825.281257</v>
       </c>
       <c r="I8" t="n">
-        <v>875.822905</v>
+        <v>1760.925442</v>
       </c>
     </row>
     <row r="9">
@@ -973,28 +6031,28 @@
         <v>40000.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1072.613977</v>
+        <v>0.170245</v>
       </c>
       <c r="C9" t="n">
-        <v>1.946938</v>
+        <v>1152.708496</v>
       </c>
       <c r="D9" t="n">
-        <v>0.158724</v>
+        <v>2527.719856</v>
       </c>
       <c r="E9" t="n">
-        <v>1.955898</v>
+        <v>2.854484</v>
       </c>
       <c r="F9" t="n">
-        <v>2283.384343</v>
+        <v>5.684007</v>
       </c>
       <c r="G9" t="n">
-        <v>2195.057262</v>
+        <v>1.848374</v>
       </c>
       <c r="H9" t="n">
-        <v>1.145634</v>
+        <v>1206.767048</v>
       </c>
       <c r="I9" t="n">
-        <v>1135.926561</v>
+        <v>3143.103093</v>
       </c>
     </row>
     <row r="10">
@@ -1002,28 +6060,28 @@
         <v>45000.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1366.548391</v>
+        <v>0.199045</v>
       </c>
       <c r="C10" t="n">
-        <v>2.273347</v>
+        <v>1756.560513</v>
       </c>
       <c r="D10" t="n">
-        <v>0.167045</v>
+        <v>3506.471231</v>
       </c>
       <c r="E10" t="n">
-        <v>2.139583</v>
+        <v>0.871066</v>
       </c>
       <c r="F10" t="n">
-        <v>2900.728598</v>
+        <v>12.525169</v>
       </c>
       <c r="G10" t="n">
-        <v>2749.597748</v>
+        <v>2.199744</v>
       </c>
       <c r="H10" t="n">
-        <v>0.460173</v>
+        <v>2698.498643</v>
       </c>
       <c r="I10" t="n">
-        <v>1449.343789</v>
+        <v>6305.675559</v>
       </c>
     </row>
     <row r="11">
@@ -1031,28 +6089,28 @@
         <v>50000.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1681.776871</v>
+        <v>1.230756</v>
       </c>
       <c r="C11" t="n">
-        <v>2.634958</v>
+        <v>3493.909581</v>
       </c>
       <c r="D11" t="n">
-        <v>0.565777</v>
+        <v>5210.349232</v>
       </c>
       <c r="E11" t="n">
-        <v>2.433352</v>
+        <v>0.539535</v>
       </c>
       <c r="F11" t="n">
-        <v>3625.996029</v>
+        <v>3.04777</v>
       </c>
       <c r="G11" t="n">
-        <v>3449.672758</v>
+        <v>2.839124</v>
       </c>
       <c r="H11" t="n">
-        <v>0.478094</v>
+        <v>5409.292049</v>
       </c>
       <c r="I11" t="n">
-        <v>1782.047343</v>
+        <v>12730.821515</v>
       </c>
     </row>
     <row r="12">
@@ -1060,28 +6118,28 @@
         <v>55000.0</v>
       </c>
       <c r="B12" t="n">
-        <v>2062.387117</v>
+        <v>0.208006</v>
       </c>
       <c r="C12" t="n">
-        <v>2.71176</v>
+        <v>3361.171593</v>
       </c>
       <c r="D12" t="n">
-        <v>0.204806</v>
+        <v>7784.831426</v>
       </c>
       <c r="E12" t="n">
-        <v>2.883285</v>
+        <v>0.528656</v>
       </c>
       <c r="F12" t="n">
-        <v>4345.76954</v>
+        <v>4.801421</v>
       </c>
       <c r="G12" t="n">
-        <v>4187.004545</v>
+        <v>14.180898</v>
       </c>
       <c r="H12" t="n">
-        <v>0.512655</v>
+        <v>3442.725994</v>
       </c>
       <c r="I12" t="n">
-        <v>2153.825968</v>
+        <v>7135.88304</v>
       </c>
     </row>
     <row r="13">
@@ -1089,28 +6147,28 @@
         <v>60000.0</v>
       </c>
       <c r="B13" t="n">
-        <v>2434.11902</v>
+        <v>0.274568</v>
       </c>
       <c r="C13" t="n">
-        <v>3.117531</v>
+        <v>5957.1821</v>
       </c>
       <c r="D13" t="n">
-        <v>0.407692</v>
+        <v>18517.99093</v>
       </c>
       <c r="E13" t="n">
-        <v>2.806483</v>
+        <v>0.587538</v>
       </c>
       <c r="F13" t="n">
-        <v>5194.561248</v>
+        <v>6.12562</v>
       </c>
       <c r="G13" t="n">
-        <v>4957.925161</v>
+        <v>2.771921</v>
       </c>
       <c r="H13" t="n">
-        <v>0.594577</v>
+        <v>12307.862503</v>
       </c>
       <c r="I13" t="n">
-        <v>2574.102022</v>
+        <v>23536.861885</v>
       </c>
     </row>
     <row r="14">
@@ -1118,28 +6176,28 @@
         <v>65000.0</v>
       </c>
       <c r="B14" t="n">
-        <v>2876.69333</v>
+        <v>0.389131</v>
       </c>
       <c r="C14" t="n">
-        <v>3.029849</v>
+        <v>3637.017794</v>
       </c>
       <c r="D14" t="n">
-        <v>0.204806</v>
+        <v>6545.094448</v>
       </c>
       <c r="E14" t="n">
-        <v>2.958167</v>
+        <v>0.584977</v>
       </c>
       <c r="F14" t="n">
-        <v>6062.988734</v>
+        <v>3.319138</v>
       </c>
       <c r="G14" t="n">
-        <v>5811.256524</v>
+        <v>3.677549</v>
       </c>
       <c r="H14" t="n">
-        <v>0.596498</v>
+        <v>5873.164266</v>
       </c>
       <c r="I14" t="n">
-        <v>3033.944039</v>
+        <v>24097.446069</v>
       </c>
     </row>
     <row r="15">
@@ -1147,28 +6205,28 @@
         <v>70000.0</v>
       </c>
       <c r="B15" t="n">
-        <v>3343.459712</v>
+        <v>0.225926</v>
       </c>
       <c r="C15" t="n">
-        <v>3.410021</v>
+        <v>4010.574391</v>
       </c>
       <c r="D15" t="n">
-        <v>0.222087</v>
+        <v>8401.568942</v>
       </c>
       <c r="E15" t="n">
-        <v>3.260896</v>
+        <v>0.65346</v>
       </c>
       <c r="F15" t="n">
-        <v>7042.884462</v>
+        <v>6.124981</v>
       </c>
       <c r="G15" t="n">
-        <v>6757.710628</v>
+        <v>4.275966</v>
       </c>
       <c r="H15" t="n">
-        <v>0.901787</v>
+        <v>4554.418882</v>
       </c>
       <c r="I15" t="n">
-        <v>3504.953106</v>
+        <v>8488.838072</v>
       </c>
     </row>
     <row r="16">
@@ -1176,28 +6234,28 @@
         <v>75000.0</v>
       </c>
       <c r="B16" t="n">
-        <v>3822.741661</v>
+        <v>0.238087</v>
       </c>
       <c r="C16" t="n">
-        <v>4.155643</v>
+        <v>4434.087659</v>
       </c>
       <c r="D16" t="n">
-        <v>0.240007</v>
+        <v>11126.221956</v>
       </c>
       <c r="E16" t="n">
-        <v>3.547625</v>
+        <v>0.716181</v>
       </c>
       <c r="F16" t="n">
-        <v>8088.350121</v>
+        <v>3.882994</v>
       </c>
       <c r="G16" t="n">
-        <v>7783.469465</v>
+        <v>3.546344</v>
       </c>
       <c r="H16" t="n">
-        <v>0.69186</v>
+        <v>4242.981233</v>
       </c>
       <c r="I16" t="n">
-        <v>4046.236241</v>
+        <v>8867.642184</v>
       </c>
     </row>
     <row r="17">
@@ -1205,28 +6263,28 @@
         <v>80000.0</v>
       </c>
       <c r="B17" t="n">
-        <v>4361.494162</v>
+        <v>0.275848</v>
       </c>
       <c r="C17" t="n">
-        <v>4.7547</v>
+        <v>4663.340488</v>
       </c>
       <c r="D17" t="n">
-        <v>0.264968</v>
+        <v>11799.57874</v>
       </c>
       <c r="E17" t="n">
-        <v>3.655148</v>
+        <v>0.909467</v>
       </c>
       <c r="F17" t="n">
-        <v>9206.047666</v>
+        <v>4.192763</v>
       </c>
       <c r="G17" t="n">
-        <v>8904.113017</v>
+        <v>4.333567</v>
       </c>
       <c r="H17" t="n">
-        <v>0.913307</v>
+        <v>5503.381859</v>
       </c>
       <c r="I17" t="n">
-        <v>4616.914162</v>
+        <v>11153.566121</v>
       </c>
     </row>
     <row r="18">
@@ -1234,28 +6292,28 @@
         <v>85000.0</v>
       </c>
       <c r="B18" t="n">
-        <v>5031.27644</v>
+        <v>0.272648</v>
       </c>
       <c r="C18" t="n">
-        <v>4.722699</v>
+        <v>5443.175287</v>
       </c>
       <c r="D18" t="n">
-        <v>0.271368</v>
+        <v>10793.733448</v>
       </c>
       <c r="E18" t="n">
-        <v>4.208124</v>
+        <v>0.759062</v>
       </c>
       <c r="F18" t="n">
-        <v>10470.165522</v>
+        <v>5.602725</v>
       </c>
       <c r="G18" t="n">
-        <v>10235.537814</v>
+        <v>4.09356</v>
       </c>
       <c r="H18" t="n">
-        <v>0.796824</v>
+        <v>5279.775916</v>
       </c>
       <c r="I18" t="n">
-        <v>5232.759492</v>
+        <v>11433.315797</v>
       </c>
     </row>
     <row r="19">
@@ -1263,28 +6321,28 @@
         <v>90000.0</v>
       </c>
       <c r="B19" t="n">
-        <v>5543.82849</v>
+        <v>0.286088</v>
       </c>
       <c r="C19" t="n">
-        <v>4.625416</v>
+        <v>6300.205958</v>
       </c>
       <c r="D19" t="n">
-        <v>0.311689</v>
+        <v>17472.763998</v>
       </c>
       <c r="E19" t="n">
-        <v>4.354048</v>
+        <v>0.869145</v>
       </c>
       <c r="F19" t="n">
-        <v>11750.614098</v>
+        <v>5.834412</v>
       </c>
       <c r="G19" t="n">
-        <v>11297.855809</v>
+        <v>12.297322</v>
       </c>
       <c r="H19" t="n">
-        <v>0.819864</v>
+        <v>7619.320633</v>
       </c>
       <c r="I19" t="n">
-        <v>5834.956421</v>
+        <v>13486.240235</v>
       </c>
     </row>
     <row r="20">
@@ -1292,28 +6350,28 @@
         <v>95000.0</v>
       </c>
       <c r="B20" t="n">
-        <v>6180.649798</v>
+        <v>0.293769</v>
       </c>
       <c r="C20" t="n">
-        <v>5.232154</v>
+        <v>8164.136032</v>
       </c>
       <c r="D20" t="n">
-        <v>0.291849</v>
+        <v>13980.99912</v>
       </c>
       <c r="E20" t="n">
-        <v>5.42672</v>
+        <v>0.890907</v>
       </c>
       <c r="F20" t="n">
-        <v>13020.951016</v>
+        <v>5.131031</v>
       </c>
       <c r="G20" t="n">
-        <v>12533.540187</v>
+        <v>4.532614</v>
       </c>
       <c r="H20" t="n">
-        <v>0.892186</v>
+        <v>6019.070641</v>
       </c>
       <c r="I20" t="n">
-        <v>6483.522715</v>
+        <v>13107.227477</v>
       </c>
     </row>
     <row r="21">
@@ -1321,37 +6379,38 @@
         <v>100000.0</v>
       </c>
       <c r="B21" t="n">
-        <v>6852.265091</v>
+        <v>0.31809</v>
       </c>
       <c r="C21" t="n">
-        <v>5.390879</v>
+        <v>6952.382599</v>
       </c>
       <c r="D21" t="n">
-        <v>0.31617</v>
+        <v>13823.728571</v>
       </c>
       <c r="E21" t="n">
-        <v>4.924305</v>
+        <v>0.904346</v>
       </c>
       <c r="F21" t="n">
-        <v>14882.254454</v>
+        <v>6.153141</v>
       </c>
       <c r="G21" t="n">
-        <v>14038.70514</v>
+        <v>5.533603</v>
       </c>
       <c r="H21" t="n">
-        <v>0.911387</v>
+        <v>6857.375641</v>
       </c>
       <c r="I21" t="n">
-        <v>7189.111487</v>
+        <v>14525.559152</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1359,14 +6418,14 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="12.15234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.16015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.63671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.09375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.9921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="21.6875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="23.23046875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="24.06640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="29.62109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.09375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="29.62109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="23.23046875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.06640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="19.63671875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.9921875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="31.16015625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="21.6875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1403,28 +6462,28 @@
         <v>5000.0</v>
       </c>
       <c r="B2" t="n">
-        <v>22.883234</v>
+        <v>0.518415</v>
       </c>
       <c r="C2" t="n">
-        <v>5.989297</v>
+        <v>20.752611</v>
       </c>
       <c r="D2" t="n">
-        <v>0.431372</v>
+        <v>60.493301</v>
       </c>
       <c r="E2" t="n">
-        <v>6.44371</v>
+        <v>0.501775</v>
       </c>
       <c r="F2" t="n">
-        <v>61.099399</v>
+        <v>4.788621</v>
       </c>
       <c r="G2" t="n">
-        <v>48.526229</v>
+        <v>1.320358</v>
       </c>
       <c r="H2" t="n">
-        <v>0.464013</v>
+        <v>24.498641</v>
       </c>
       <c r="I2" t="n">
-        <v>20.273237</v>
+        <v>42.965745</v>
       </c>
     </row>
     <row r="3">
@@ -1432,28 +6491,28 @@
         <v>10000.0</v>
       </c>
       <c r="B3" t="n">
-        <v>96.47132</v>
+        <v>0.897306</v>
       </c>
       <c r="C3" t="n">
+        <v>86.61631</v>
+      </c>
+      <c r="D3" t="n">
+        <v>204.090488</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.959388</v>
+      </c>
+      <c r="F3" t="n">
         <v>1.345959</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.907547</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.213475</v>
-      </c>
-      <c r="F3" t="n">
-        <v>179.749932</v>
-      </c>
       <c r="G3" t="n">
-        <v>199.130982</v>
+        <v>1.283877</v>
       </c>
       <c r="H3" t="n">
-        <v>1.159074</v>
+        <v>96.294035</v>
       </c>
       <c r="I3" t="n">
-        <v>84.417205</v>
+        <v>183.875493</v>
       </c>
     </row>
     <row r="4">
@@ -1461,28 +6520,28 @@
         <v>15000.0</v>
       </c>
       <c r="B4" t="n">
-        <v>220.738019</v>
+        <v>1.383081</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0295</v>
+        <v>204.941713</v>
       </c>
       <c r="D4" t="n">
-        <v>1.313319</v>
+        <v>470.142481</v>
       </c>
       <c r="E4" t="n">
-        <v>1.868215</v>
+        <v>1.457323</v>
       </c>
       <c r="F4" t="n">
-        <v>418.637605</v>
+        <v>2.025019</v>
       </c>
       <c r="G4" t="n">
-        <v>455.473889</v>
+        <v>2.37639</v>
       </c>
       <c r="H4" t="n">
-        <v>1.409322</v>
+        <v>224.443728</v>
       </c>
       <c r="I4" t="n">
-        <v>196.563227</v>
+        <v>421.481848</v>
       </c>
     </row>
     <row r="5">
@@ -1490,28 +6549,28 @@
         <v>20000.0</v>
       </c>
       <c r="B5" t="n">
-        <v>398.165962</v>
+        <v>2.058941</v>
       </c>
       <c r="C5" t="n">
-        <v>2.644558</v>
+        <v>371.849668</v>
       </c>
       <c r="D5" t="n">
-        <v>1.753652</v>
+        <v>841.898706</v>
       </c>
       <c r="E5" t="n">
-        <v>2.505034</v>
+        <v>1.989179</v>
       </c>
       <c r="F5" t="n">
-        <v>755.002067</v>
+        <v>2.7188</v>
       </c>
       <c r="G5" t="n">
-        <v>814.908471</v>
+        <v>3.436261</v>
       </c>
       <c r="H5" t="n">
-        <v>2.438472</v>
+        <v>411.679319</v>
       </c>
       <c r="I5" t="n">
-        <v>370.846758</v>
+        <v>768.022611</v>
       </c>
     </row>
     <row r="6">
@@ -1519,28 +6578,28 @@
         <v>25000.0</v>
       </c>
       <c r="B6" t="n">
-        <v>628.012728</v>
+        <v>2.334789</v>
       </c>
       <c r="C6" t="n">
-        <v>3.454822</v>
+        <v>580.568772</v>
       </c>
       <c r="D6" t="n">
-        <v>2.276547</v>
+        <v>1316.354914</v>
       </c>
       <c r="E6" t="n">
-        <v>3.349859</v>
+        <v>2.505034</v>
       </c>
       <c r="F6" t="n">
-        <v>1185.81027</v>
+        <v>3.323618</v>
       </c>
       <c r="G6" t="n">
-        <v>1278.111228</v>
+        <v>3.204575</v>
       </c>
       <c r="H6" t="n">
-        <v>2.423751</v>
+        <v>650.351306</v>
       </c>
       <c r="I6" t="n">
-        <v>581.033426</v>
+        <v>1209.871779</v>
       </c>
     </row>
     <row r="7">
@@ -1548,28 +6607,28 @@
         <v>30000.0</v>
       </c>
       <c r="B7" t="n">
-        <v>915.43879</v>
+        <v>3.017689</v>
       </c>
       <c r="C7" t="n">
-        <v>4.347007</v>
+        <v>843.176823</v>
       </c>
       <c r="D7" t="n">
-        <v>2.851924</v>
+        <v>1905.151768</v>
       </c>
       <c r="E7" t="n">
-        <v>4.167803</v>
+        <v>3.186654</v>
       </c>
       <c r="F7" t="n">
-        <v>1719.937995</v>
+        <v>4.07948</v>
       </c>
       <c r="G7" t="n">
-        <v>1851.871479</v>
+        <v>3.959156</v>
       </c>
       <c r="H7" t="n">
-        <v>3.103451</v>
+        <v>942.25814</v>
       </c>
       <c r="I7" t="n">
-        <v>837.256008</v>
+        <v>1731.617699</v>
       </c>
     </row>
     <row r="8">
@@ -1577,28 +6636,28 @@
         <v>35000.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1258.82746</v>
+        <v>3.3761</v>
       </c>
       <c r="C8" t="n">
-        <v>4.805261</v>
+        <v>1160.441843</v>
       </c>
       <c r="D8" t="n">
-        <v>3.209055</v>
+        <v>2583.315092</v>
       </c>
       <c r="E8" t="n">
-        <v>4.594695</v>
+        <v>3.532264</v>
       </c>
       <c r="F8" t="n">
-        <v>2343.40147</v>
+        <v>4.743819</v>
       </c>
       <c r="G8" t="n">
-        <v>2517.31251</v>
+        <v>4.622217</v>
       </c>
       <c r="H8" t="n">
-        <v>3.455462</v>
+        <v>1285.134794</v>
       </c>
       <c r="I8" t="n">
-        <v>1143.217657</v>
+        <v>2359.787232</v>
       </c>
     </row>
     <row r="9">
@@ -1606,28 +6665,28 @@
         <v>40000.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1630.670087</v>
+        <v>4.341888</v>
       </c>
       <c r="C9" t="n">
-        <v>5.499042</v>
+        <v>1513.992092</v>
       </c>
       <c r="D9" t="n">
-        <v>3.71339</v>
+        <v>3447.6919</v>
       </c>
       <c r="E9" t="n">
-        <v>5.540643</v>
+        <v>4.130041</v>
       </c>
       <c r="F9" t="n">
-        <v>3053.214366</v>
+        <v>5.692967</v>
       </c>
       <c r="G9" t="n">
-        <v>3286.985089</v>
+        <v>5.42096</v>
       </c>
       <c r="H9" t="n">
-        <v>3.971317</v>
+        <v>1690.839539</v>
       </c>
       <c r="I9" t="n">
-        <v>1501.272357</v>
+        <v>3101.147938</v>
       </c>
     </row>
     <row r="10">
@@ -1635,28 +6694,28 @@
         <v>45000.0</v>
       </c>
       <c r="B10" t="n">
-        <v>2101.025694</v>
+        <v>4.868624</v>
       </c>
       <c r="C10" t="n">
-        <v>6.239544</v>
+        <v>1935.663386</v>
       </c>
       <c r="D10" t="n">
-        <v>4.308607</v>
+        <v>4300.27508</v>
       </c>
       <c r="E10" t="n">
-        <v>6.051378</v>
+        <v>4.672138</v>
       </c>
       <c r="F10" t="n">
-        <v>3895.791492</v>
+        <v>6.520512</v>
       </c>
       <c r="G10" t="n">
-        <v>4187.618963</v>
+        <v>6.155701</v>
       </c>
       <c r="H10" t="n">
-        <v>4.493573</v>
+        <v>2131.182102</v>
       </c>
       <c r="I10" t="n">
-        <v>1926.078464</v>
+        <v>3942.446306</v>
       </c>
     </row>
     <row r="11">
@@ -1664,28 +6723,28 @@
         <v>50000.0</v>
       </c>
       <c r="B11" t="n">
-        <v>2561.266444</v>
+        <v>5.10031</v>
       </c>
       <c r="C11" t="n">
-        <v>7.252053</v>
+        <v>2391.873297</v>
       </c>
       <c r="D11" t="n">
-        <v>4.871824</v>
+        <v>5302.158015</v>
       </c>
       <c r="E11" t="n">
-        <v>7.298775</v>
+        <v>5.472801</v>
       </c>
       <c r="F11" t="n">
-        <v>4822.584217</v>
+        <v>7.031887</v>
       </c>
       <c r="G11" t="n">
-        <v>5161.360911</v>
+        <v>7.164371</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115031</v>
+        <v>2642.760043</v>
       </c>
       <c r="I11" t="n">
-        <v>2382.363897</v>
+        <v>4865.225472</v>
       </c>
     </row>
     <row r="12">
@@ -1693,28 +6752,28 @@
         <v>55000.0</v>
       </c>
       <c r="B12" t="n">
-        <v>3090.165214</v>
+        <v>5.484961</v>
       </c>
       <c r="C12" t="n">
-        <v>8.004715</v>
+        <v>2904.795917</v>
       </c>
       <c r="D12" t="n">
-        <v>5.940015</v>
+        <v>6425.684853</v>
       </c>
       <c r="E12" t="n">
-        <v>7.520862</v>
+        <v>5.881134</v>
       </c>
       <c r="F12" t="n">
-        <v>5849.265962</v>
+        <v>14.468906</v>
       </c>
       <c r="G12" t="n">
-        <v>6219.09637</v>
+        <v>7.598944</v>
       </c>
       <c r="H12" t="n">
-        <v>5.634086</v>
+        <v>3186.633975</v>
       </c>
       <c r="I12" t="n">
-        <v>2890.230369</v>
+        <v>5888.947131</v>
       </c>
     </row>
     <row r="13">
@@ -1722,28 +6781,28 @@
         <v>60000.0</v>
       </c>
       <c r="B13" t="n">
-        <v>3685.753948</v>
+        <v>5.977136</v>
       </c>
       <c r="C13" t="n">
-        <v>8.765058</v>
+        <v>3468.349788</v>
       </c>
       <c r="D13" t="n">
-        <v>6.032177</v>
+        <v>7639.002492</v>
       </c>
       <c r="E13" t="n">
-        <v>8.813059</v>
+        <v>8.245362</v>
       </c>
       <c r="F13" t="n">
-        <v>6956.781448</v>
+        <v>8.598653</v>
       </c>
       <c r="G13" t="n">
-        <v>7433.530203</v>
+        <v>8.83546</v>
       </c>
       <c r="H13" t="n">
-        <v>6.255544</v>
+        <v>3801.176867</v>
       </c>
       <c r="I13" t="n">
-        <v>3444.203158</v>
+        <v>7044.608673</v>
       </c>
     </row>
     <row r="14">
@@ -1751,28 +6810,28 @@
         <v>65000.0</v>
       </c>
       <c r="B14" t="n">
-        <v>4340.103452</v>
+        <v>6.953805</v>
       </c>
       <c r="C14" t="n">
-        <v>9.268753</v>
+        <v>4071.66675</v>
       </c>
       <c r="D14" t="n">
-        <v>6.632515</v>
+        <v>9033.549148</v>
       </c>
       <c r="E14" t="n">
-        <v>9.451798</v>
+        <v>6.929484</v>
       </c>
       <c r="F14" t="n">
-        <v>8139.61179</v>
+        <v>9.52348</v>
       </c>
       <c r="G14" t="n">
-        <v>8764.542189</v>
+        <v>9.123469</v>
       </c>
       <c r="H14" t="n">
-        <v>6.879562</v>
+        <v>4472.429268</v>
       </c>
       <c r="I14" t="n">
-        <v>4047.587321</v>
+        <v>8296.113037</v>
       </c>
     </row>
     <row r="15">
@@ -1780,28 +6839,28 @@
         <v>70000.0</v>
       </c>
       <c r="B15" t="n">
-        <v>5045.031726</v>
+        <v>7.13749</v>
       </c>
       <c r="C15" t="n">
-        <v>10.800957</v>
+        <v>4775.847481</v>
       </c>
       <c r="D15" t="n">
-        <v>7.117649</v>
+        <v>10424.955871</v>
       </c>
       <c r="E15" t="n">
-        <v>9.732767</v>
+        <v>7.708387</v>
       </c>
       <c r="F15" t="n">
-        <v>9477.514218</v>
+        <v>10.736956</v>
       </c>
       <c r="G15" t="n">
-        <v>10208.006764</v>
+        <v>9.768608</v>
       </c>
       <c r="H15" t="n">
-        <v>7.880552</v>
+        <v>5163.050561</v>
       </c>
       <c r="I15" t="n">
-        <v>4744.636962</v>
+        <v>9601.531949</v>
       </c>
     </row>
     <row r="16">
@@ -1809,28 +6868,28 @@
         <v>75000.0</v>
       </c>
       <c r="B16" t="n">
-        <v>5844.163732</v>
+        <v>8.308085</v>
       </c>
       <c r="C16" t="n">
-        <v>10.830398</v>
+        <v>5442.400224</v>
       </c>
       <c r="D16" t="n">
-        <v>7.361497</v>
+        <v>11963.802455</v>
       </c>
       <c r="E16" t="n">
-        <v>10.710075</v>
+        <v>8.549371</v>
       </c>
       <c r="F16" t="n">
-        <v>10926.193667</v>
+        <v>11.423056</v>
       </c>
       <c r="G16" t="n">
-        <v>11632.673986</v>
+        <v>10.578232</v>
       </c>
       <c r="H16" t="n">
-        <v>7.965034</v>
+        <v>6077.555563</v>
       </c>
       <c r="I16" t="n">
-        <v>5418.640805</v>
+        <v>11275.025697</v>
       </c>
     </row>
     <row r="17">
@@ -1838,28 +6897,28 @@
         <v>80000.0</v>
       </c>
       <c r="B17" t="n">
-        <v>6631.022737</v>
+        <v>9.283473</v>
       </c>
       <c r="C17" t="n">
-        <v>11.949792</v>
+        <v>6364.568813</v>
       </c>
       <c r="D17" t="n">
-        <v>8.292084</v>
+        <v>13928.268608</v>
       </c>
       <c r="E17" t="n">
-        <v>11.760986</v>
+        <v>8.84634</v>
       </c>
       <c r="F17" t="n">
-        <v>12426.712723</v>
+        <v>11.711065</v>
       </c>
       <c r="G17" t="n">
-        <v>13298.545109</v>
+        <v>12.203239</v>
       </c>
       <c r="H17" t="n">
-        <v>8.339446</v>
+        <v>6828.970325</v>
       </c>
       <c r="I17" t="n">
-        <v>6166.586664</v>
+        <v>12521.290867</v>
       </c>
     </row>
     <row r="18">
@@ -1867,28 +6926,28 @@
         <v>85000.0</v>
       </c>
       <c r="B18" t="n">
-        <v>7430.860684</v>
+        <v>9.070347</v>
       </c>
       <c r="C18" t="n">
-        <v>13.229829</v>
+        <v>6996.176527</v>
       </c>
       <c r="D18" t="n">
-        <v>8.941063</v>
+        <v>15475.040545</v>
       </c>
       <c r="E18" t="n">
-        <v>11.919071</v>
+        <v>9.50044</v>
       </c>
       <c r="F18" t="n">
-        <v>14002.483273</v>
+        <v>12.368364</v>
       </c>
       <c r="G18" t="n">
-        <v>15010.067497</v>
+        <v>12.354923</v>
       </c>
       <c r="H18" t="n">
-        <v>9.608603</v>
+        <v>7637.366604</v>
       </c>
       <c r="I18" t="n">
-        <v>6964.921847</v>
+        <v>14147.74899</v>
       </c>
     </row>
     <row r="19">
@@ -1896,28 +6955,28 @@
         <v>90000.0</v>
       </c>
       <c r="B19" t="n">
-        <v>8341.507654</v>
+        <v>9.587482</v>
       </c>
       <c r="C19" t="n">
-        <v>13.035264</v>
+        <v>7852.466697</v>
       </c>
       <c r="D19" t="n">
-        <v>8.996745</v>
+        <v>17351.741556</v>
       </c>
       <c r="E19" t="n">
-        <v>13.528719</v>
+        <v>9.87101</v>
       </c>
       <c r="F19" t="n">
-        <v>15731.222807</v>
+        <v>13.656722</v>
       </c>
       <c r="G19" t="n">
-        <v>16870.368663</v>
+        <v>13.086465</v>
       </c>
       <c r="H19" t="n">
-        <v>9.606042</v>
+        <v>8869.889929</v>
       </c>
       <c r="I19" t="n">
-        <v>7841.677899</v>
+        <v>16651.861751</v>
       </c>
     </row>
     <row r="20">
@@ -1925,28 +6984,28 @@
         <v>95000.0</v>
       </c>
       <c r="B20" t="n">
-        <v>9245.410105</v>
+        <v>10.439988</v>
       </c>
       <c r="C20" t="n">
-        <v>14.004252</v>
+        <v>9105.868077</v>
       </c>
       <c r="D20" t="n">
-        <v>10.310063</v>
+        <v>20113.235973</v>
       </c>
       <c r="E20" t="n">
-        <v>13.754005</v>
+        <v>10.51871</v>
       </c>
       <c r="F20" t="n">
-        <v>17582.1829</v>
+        <v>14.137376</v>
       </c>
       <c r="G20" t="n">
-        <v>18781.519328</v>
+        <v>13.671443</v>
       </c>
       <c r="H20" t="n">
-        <v>10.892481</v>
+        <v>9575.364139</v>
       </c>
       <c r="I20" t="n">
-        <v>8720.729699</v>
+        <v>17803.630699</v>
       </c>
     </row>
     <row r="21">
@@ -1954,37 +7013,38 @@
         <v>100000.0</v>
       </c>
       <c r="B21" t="n">
-        <v>10289.821013</v>
+        <v>11.101766</v>
       </c>
       <c r="C21" t="n">
-        <v>15.97039</v>
+        <v>9723.614263</v>
       </c>
       <c r="D21" t="n">
-        <v>10.354865</v>
+        <v>21430.915726</v>
       </c>
       <c r="E21" t="n">
-        <v>15.26317</v>
+        <v>12.006754</v>
       </c>
       <c r="F21" t="n">
-        <v>19433.06363</v>
+        <v>22.513302</v>
       </c>
       <c r="G21" t="n">
-        <v>20861.969056</v>
+        <v>14.318502</v>
       </c>
       <c r="H21" t="n">
-        <v>11.345614</v>
+        <v>10621.731584</v>
       </c>
       <c r="I21" t="n">
-        <v>9661.761563</v>
+        <v>19637.986783</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1992,14 +7052,14 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="12.15234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.16015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.63671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.09375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.9921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="21.6875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="23.23046875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="24.06640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="29.62109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.09375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="29.62109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="23.23046875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.06640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="19.63671875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.9921875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="31.16015625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="21.6875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2036,28 +7096,28 @@
         <v>5000.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.078082</v>
+        <v>0.087683</v>
       </c>
       <c r="C2" t="n">
-        <v>0.254727</v>
+        <v>4.231805</v>
       </c>
       <c r="D2" t="n">
-        <v>0.074242</v>
+        <v>0.067202</v>
       </c>
       <c r="E2" t="n">
-        <v>0.204166</v>
+        <v>0.075522</v>
       </c>
       <c r="F2" t="n">
-        <v>5.186073</v>
+        <v>0.248328</v>
       </c>
       <c r="G2" t="n">
-        <v>0.040961</v>
+        <v>0.224646</v>
       </c>
       <c r="H2" t="n">
-        <v>0.080002</v>
+        <v>0.056962</v>
       </c>
       <c r="I2" t="n">
-        <v>3.028569</v>
+        <v>11.423696</v>
       </c>
     </row>
     <row r="3">
@@ -2065,28 +7125,28 @@
         <v>10000.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110084</v>
+        <v>0.140804</v>
       </c>
       <c r="C3" t="n">
-        <v>0.430732</v>
+        <v>5.798571</v>
       </c>
       <c r="D3" t="n">
-        <v>0.133124</v>
+        <v>0.048001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.401932</v>
+        <v>0.132484</v>
       </c>
       <c r="F3" t="n">
-        <v>11.648983</v>
+        <v>0.437133</v>
       </c>
       <c r="G3" t="n">
-        <v>0.070402</v>
+        <v>0.398091</v>
       </c>
       <c r="H3" t="n">
-        <v>0.145284</v>
+        <v>0.093443</v>
       </c>
       <c r="I3" t="n">
-        <v>4.932625</v>
+        <v>12.136037</v>
       </c>
     </row>
     <row r="4">
@@ -2094,28 +7154,28 @@
         <v>15000.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.149124</v>
+        <v>0.179845</v>
       </c>
       <c r="C4" t="n">
-        <v>0.658579</v>
+        <v>45.421497</v>
       </c>
       <c r="D4" t="n">
-        <v>0.190726</v>
+        <v>0.117764</v>
       </c>
       <c r="E4" t="n">
-        <v>0.598418</v>
+        <v>0.179205</v>
       </c>
       <c r="F4" t="n">
-        <v>15.735503</v>
+        <v>0.748822</v>
       </c>
       <c r="G4" t="n">
-        <v>0.087682</v>
+        <v>0.68354</v>
       </c>
       <c r="H4" t="n">
-        <v>0.211846</v>
+        <v>0.153604</v>
       </c>
       <c r="I4" t="n">
-        <v>7.82615</v>
+        <v>119.401275</v>
       </c>
     </row>
     <row r="5">
@@ -2123,28 +7183,28 @@
         <v>20000.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.197766</v>
+        <v>0.221446</v>
       </c>
       <c r="C5" t="n">
-        <v>1.059231</v>
+        <v>61.664535</v>
       </c>
       <c r="D5" t="n">
-        <v>0.215687</v>
+        <v>0.142724</v>
       </c>
       <c r="E5" t="n">
-        <v>0.964508</v>
+        <v>0.233607</v>
       </c>
       <c r="F5" t="n">
-        <v>205.828779</v>
+        <v>1.01443</v>
       </c>
       <c r="G5" t="n">
-        <v>0.129283</v>
+        <v>1.00035</v>
       </c>
       <c r="H5" t="n">
-        <v>0.248967</v>
+        <v>0.196486</v>
       </c>
       <c r="I5" t="n">
-        <v>55.051861</v>
+        <v>246.880868</v>
       </c>
     </row>
     <row r="6">
@@ -2152,28 +7212,28 @@
         <v>25000.0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.240647</v>
+        <v>0.33601</v>
       </c>
       <c r="C6" t="n">
-        <v>1.815093</v>
+        <v>40.396709</v>
       </c>
       <c r="D6" t="n">
-        <v>0.33729</v>
+        <v>0.115844</v>
       </c>
       <c r="E6" t="n">
-        <v>1.075871</v>
+        <v>0.305289</v>
       </c>
       <c r="F6" t="n">
-        <v>30.318332</v>
+        <v>1.219875</v>
       </c>
       <c r="G6" t="n">
-        <v>0.116483</v>
+        <v>1.088032</v>
       </c>
       <c r="H6" t="n">
-        <v>0.325769</v>
+        <v>0.254088</v>
       </c>
       <c r="I6" t="n">
-        <v>15.232448</v>
+        <v>106.194487</v>
       </c>
     </row>
     <row r="7">
@@ -2181,28 +7241,28 @@
         <v>30000.0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.275848</v>
+        <v>0.357131</v>
       </c>
       <c r="C7" t="n">
-        <v>1.499564</v>
+        <v>124.084933</v>
       </c>
       <c r="D7" t="n">
-        <v>0.33729</v>
+        <v>0.145284</v>
       </c>
       <c r="E7" t="n">
-        <v>1.626928</v>
+        <v>0.391692</v>
       </c>
       <c r="F7" t="n">
-        <v>498.940129</v>
+        <v>1.434282</v>
       </c>
       <c r="G7" t="n">
-        <v>0.158084</v>
+        <v>1.580206</v>
       </c>
       <c r="H7" t="n">
-        <v>0.33601</v>
+        <v>0.34945</v>
       </c>
       <c r="I7" t="n">
-        <v>124.186056</v>
+        <v>297.667643</v>
       </c>
     </row>
     <row r="8">
@@ -2210,28 +7270,28 @@
         <v>35000.0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.378892</v>
+        <v>0.417932</v>
       </c>
       <c r="C8" t="n">
-        <v>2.417351</v>
+        <v>129.822062</v>
       </c>
       <c r="D8" t="n">
-        <v>0.430093</v>
+        <v>0.160005</v>
       </c>
       <c r="E8" t="n">
-        <v>1.416362</v>
+        <v>0.420492</v>
       </c>
       <c r="F8" t="n">
-        <v>53.937588</v>
+        <v>1.654448</v>
       </c>
       <c r="G8" t="n">
-        <v>0.144644</v>
+        <v>1.474603</v>
       </c>
       <c r="H8" t="n">
-        <v>0.421773</v>
+        <v>0.33281</v>
       </c>
       <c r="I8" t="n">
-        <v>26.82703</v>
+        <v>289.970776</v>
       </c>
     </row>
     <row r="9">
@@ -2239,28 +7299,28 @@
         <v>40000.0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.33281</v>
+        <v>0.408332</v>
       </c>
       <c r="C9" t="n">
-        <v>1.778612</v>
+        <v>247.373683</v>
       </c>
       <c r="D9" t="n">
-        <v>0.522895</v>
+        <v>0.212486</v>
       </c>
       <c r="E9" t="n">
-        <v>1.791413</v>
+        <v>0.488335</v>
       </c>
       <c r="F9" t="n">
-        <v>52.459784</v>
+        <v>2.006459</v>
       </c>
       <c r="G9" t="n">
-        <v>0.146565</v>
+        <v>2.862164</v>
       </c>
       <c r="H9" t="n">
-        <v>0.484494</v>
+        <v>0.744982</v>
       </c>
       <c r="I9" t="n">
-        <v>25.773558</v>
+        <v>981.418973</v>
       </c>
     </row>
     <row r="10">
@@ -2268,28 +7328,28 @@
         <v>45000.0</v>
       </c>
       <c r="B10" t="n">
-        <v>0.435853</v>
+        <v>0.528016</v>
       </c>
       <c r="C10" t="n">
-        <v>2.322629</v>
+        <v>310.4917</v>
       </c>
       <c r="D10" t="n">
-        <v>0.467213</v>
+        <v>0.217606</v>
       </c>
       <c r="E10" t="n">
-        <v>2.252866</v>
+        <v>0.632339</v>
       </c>
       <c r="F10" t="n">
-        <v>1026.306694</v>
+        <v>2.348229</v>
       </c>
       <c r="G10" t="n">
-        <v>0.559376</v>
+        <v>2.36615</v>
       </c>
       <c r="H10" t="n">
-        <v>0.634259</v>
+        <v>0.423052</v>
       </c>
       <c r="I10" t="n">
-        <v>287.618708</v>
+        <v>1115.421638</v>
       </c>
     </row>
     <row r="11">
@@ -2297,28 +7357,28 @@
         <v>50000.0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.421132</v>
+        <v>0.566417</v>
       </c>
       <c r="C11" t="n">
-        <v>3.137372</v>
+        <v>349.285163</v>
       </c>
       <c r="D11" t="n">
-        <v>0.600337</v>
+        <v>0.219526</v>
       </c>
       <c r="E11" t="n">
-        <v>2.622797</v>
+        <v>0.607378</v>
       </c>
       <c r="F11" t="n">
-        <v>433.572444</v>
+        <v>2.528715</v>
       </c>
       <c r="G11" t="n">
-        <v>0.295048</v>
+        <v>2.346949</v>
       </c>
       <c r="H11" t="n">
-        <v>0.599697</v>
+        <v>0.451214</v>
       </c>
       <c r="I11" t="n">
-        <v>211.878878</v>
+        <v>884.739007</v>
       </c>
     </row>
     <row r="12">
@@ -2326,28 +7386,28 @@
         <v>55000.0</v>
       </c>
       <c r="B12" t="n">
-        <v>0.498575</v>
+        <v>0.603537</v>
       </c>
       <c r="C12" t="n">
-        <v>3.202654</v>
+        <v>466.800303</v>
       </c>
       <c r="D12" t="n">
-        <v>0.607378</v>
+        <v>0.252168</v>
       </c>
       <c r="E12" t="n">
-        <v>2.687439</v>
+        <v>0.6733</v>
       </c>
       <c r="F12" t="n">
-        <v>1531.743014</v>
+        <v>2.983768</v>
       </c>
       <c r="G12" t="n">
-        <v>0.227847</v>
+        <v>2.789203</v>
       </c>
       <c r="H12" t="n">
-        <v>0.631058</v>
+        <v>0.908827</v>
       </c>
       <c r="I12" t="n">
-        <v>416.963316</v>
+        <v>1577.42052</v>
       </c>
     </row>
     <row r="13">
@@ -2355,28 +7415,28 @@
         <v>60000.0</v>
       </c>
       <c r="B13" t="n">
-        <v>0.536336</v>
+        <v>0.67138</v>
       </c>
       <c r="C13" t="n">
-        <v>3.440741</v>
+        <v>557.192724</v>
       </c>
       <c r="D13" t="n">
-        <v>0.737942</v>
+        <v>0.268808</v>
       </c>
       <c r="E13" t="n">
-        <v>2.805202</v>
+        <v>0.6893</v>
       </c>
       <c r="F13" t="n">
-        <v>1422.604441</v>
+        <v>3.137373</v>
       </c>
       <c r="G13" t="n">
-        <v>0.241287</v>
+        <v>3.146332</v>
       </c>
       <c r="H13" t="n">
-        <v>0.700821</v>
+        <v>0.533776</v>
       </c>
       <c r="I13" t="n">
-        <v>537.107012</v>
+        <v>1841.510214</v>
       </c>
     </row>
     <row r="14">
@@ -2384,28 +7444,28 @@
         <v>65000.0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.622738</v>
+        <v>0.790423</v>
       </c>
       <c r="C14" t="n">
-        <v>3.583466</v>
+        <v>382.225653</v>
       </c>
       <c r="D14" t="n">
-        <v>0.739862</v>
+        <v>0.259208</v>
       </c>
       <c r="E14" t="n">
-        <v>3.009369</v>
+        <v>0.862745</v>
       </c>
       <c r="F14" t="n">
-        <v>1891.205757</v>
+        <v>2.917205</v>
       </c>
       <c r="G14" t="n">
-        <v>0.327049</v>
+        <v>2.746961</v>
       </c>
       <c r="H14" t="n">
-        <v>0.775703</v>
+        <v>0.839704</v>
       </c>
       <c r="I14" t="n">
-        <v>585.396434</v>
+        <v>850.065346</v>
       </c>
     </row>
     <row r="15">
@@ -2413,28 +7473,28 @@
         <v>70000.0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.616338</v>
+        <v>0.764822</v>
       </c>
       <c r="C15" t="n">
-        <v>3.516904</v>
+        <v>751.533165</v>
       </c>
       <c r="D15" t="n">
-        <v>0.788503</v>
+        <v>0.295689</v>
       </c>
       <c r="E15" t="n">
-        <v>3.203294</v>
+        <v>0.804504</v>
       </c>
       <c r="F15" t="n">
-        <v>1337.330891</v>
+        <v>3.72811</v>
       </c>
       <c r="G15" t="n">
-        <v>0.256647</v>
+        <v>3.586665</v>
       </c>
       <c r="H15" t="n">
-        <v>0.833945</v>
+        <v>0.664339</v>
       </c>
       <c r="I15" t="n">
-        <v>560.359537</v>
+        <v>2301.750963</v>
       </c>
     </row>
     <row r="16">
@@ -2442,28 +7502,28 @@
         <v>75000.0</v>
       </c>
       <c r="B16" t="n">
-        <v>0.68674</v>
+        <v>0.782743</v>
       </c>
       <c r="C16" t="n">
-        <v>3.712109</v>
+        <v>867.318334</v>
       </c>
       <c r="D16" t="n">
-        <v>1.00611</v>
+        <v>0.33729</v>
       </c>
       <c r="E16" t="n">
-        <v>3.381859</v>
+        <v>1.424042</v>
       </c>
       <c r="F16" t="n">
-        <v>1214.967609</v>
+        <v>4.737419</v>
       </c>
       <c r="G16" t="n">
-        <v>0.268168</v>
+        <v>3.883634</v>
       </c>
       <c r="H16" t="n">
-        <v>0.940188</v>
+        <v>0.68354</v>
       </c>
       <c r="I16" t="n">
-        <v>534.30245</v>
+        <v>3221.976456</v>
       </c>
     </row>
     <row r="17">
@@ -2471,28 +7531,28 @@
         <v>80000.0</v>
       </c>
       <c r="B17" t="n">
-        <v>0.768662</v>
+        <v>0.918427</v>
       </c>
       <c r="C17" t="n">
-        <v>3.890675</v>
+        <v>818.827946</v>
       </c>
       <c r="D17" t="n">
-        <v>0.956189</v>
+        <v>0.327689</v>
       </c>
       <c r="E17" t="n">
-        <v>3.491302</v>
+        <v>0.943388</v>
       </c>
       <c r="F17" t="n">
-        <v>1145.000109</v>
+        <v>4.034039</v>
       </c>
       <c r="G17" t="n">
-        <v>0.306569</v>
+        <v>3.548265</v>
       </c>
       <c r="H17" t="n">
-        <v>1.166114</v>
+        <v>0.717461</v>
       </c>
       <c r="I17" t="n">
-        <v>517.434113</v>
+        <v>1986.73689</v>
       </c>
     </row>
     <row r="18">
@@ -2500,28 +7560,28 @@
         <v>85000.0</v>
       </c>
       <c r="B18" t="n">
-        <v>0.764182</v>
+        <v>0.963868</v>
       </c>
       <c r="C18" t="n">
-        <v>4.846862</v>
+        <v>1078.748559</v>
       </c>
       <c r="D18" t="n">
-        <v>0.930587</v>
+        <v>0.34625</v>
       </c>
       <c r="E18" t="n">
-        <v>4.234365</v>
+        <v>1.67557</v>
       </c>
       <c r="F18" t="n">
-        <v>3421.19704</v>
+        <v>4.790541</v>
       </c>
       <c r="G18" t="n">
-        <v>0.352011</v>
+        <v>4.359168</v>
       </c>
       <c r="H18" t="n">
-        <v>0.931227</v>
+        <v>0.782103</v>
       </c>
       <c r="I18" t="n">
-        <v>1012.008673</v>
+        <v>2902.346565</v>
       </c>
     </row>
     <row r="19">
@@ -2529,28 +7589,28 @@
         <v>90000.0</v>
       </c>
       <c r="B19" t="n">
-        <v>0.784023</v>
+        <v>0.912667</v>
       </c>
       <c r="C19" t="n">
-        <v>5.680807</v>
+        <v>1243.242361</v>
       </c>
       <c r="D19" t="n">
-        <v>0.963869</v>
+        <v>0.419853</v>
       </c>
       <c r="E19" t="n">
-        <v>5.159191</v>
+        <v>1.02851</v>
       </c>
       <c r="F19" t="n">
-        <v>4125.635698</v>
+        <v>4.718219</v>
       </c>
       <c r="G19" t="n">
-        <v>0.381451</v>
+        <v>5.570084</v>
       </c>
       <c r="H19" t="n">
-        <v>1.012509</v>
+        <v>0.810263</v>
       </c>
       <c r="I19" t="n">
-        <v>1132.935754</v>
+        <v>4961.525907</v>
       </c>
     </row>
     <row r="20">
@@ -2558,28 +7618,28 @@
         <v>95000.0</v>
       </c>
       <c r="B20" t="n">
-        <v>0.833944</v>
+        <v>1.086752</v>
       </c>
       <c r="C20" t="n">
-        <v>5.10095</v>
+        <v>1385.957603</v>
       </c>
       <c r="D20" t="n">
-        <v>0.934428</v>
+        <v>0.396171</v>
       </c>
       <c r="E20" t="n">
-        <v>5.500322</v>
+        <v>1.138593</v>
       </c>
       <c r="F20" t="n">
-        <v>5053.513255</v>
+        <v>5.063189</v>
       </c>
       <c r="G20" t="n">
-        <v>0.577297</v>
+        <v>4.549894</v>
       </c>
       <c r="H20" t="n">
-        <v>1.068191</v>
+        <v>0.876825</v>
       </c>
       <c r="I20" t="n">
-        <v>1261.447696</v>
+        <v>4412.853114</v>
       </c>
     </row>
     <row r="21">
@@ -2587,28 +7647,182 @@
         <v>100000.0</v>
       </c>
       <c r="B21" t="n">
-        <v>0.848025</v>
+        <v>1.265958</v>
       </c>
       <c r="C21" t="n">
-        <v>5.131671</v>
+        <v>1458.809668</v>
       </c>
       <c r="D21" t="n">
-        <v>1.212836</v>
+        <v>0.416652</v>
       </c>
       <c r="E21" t="n">
-        <v>4.553094</v>
+        <v>1.240356</v>
       </c>
       <c r="F21" t="n">
-        <v>1453.311266</v>
+        <v>5.203354</v>
       </c>
       <c r="G21" t="n">
-        <v>0.33409</v>
+        <v>4.697098</v>
       </c>
       <c r="H21" t="n">
-        <v>1.746611</v>
+        <v>2.219586</v>
       </c>
       <c r="I21" t="n">
-        <v>674.371214</v>
+        <v>3836.60831</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>66.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>84.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>81.0</v>
       </c>
     </row>
   </sheetData>
